--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-prefecturenumber-vs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-prefecturenumber-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_PrefectureNumber_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_PrefectureNumber_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_PrefectureNumber_CS</t>
+    <t>urn:oid:1.2.392.100495.20.3.21</t>
   </si>
 </sst>
 </file>
